--- a/Code/Results/Cases/Case_9_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04122177019421</v>
+        <v>23.10346766878783</v>
       </c>
       <c r="C2">
-        <v>12.73357411790206</v>
+        <v>13.34839363330338</v>
       </c>
       <c r="D2">
-        <v>3.700447081866737</v>
+        <v>3.903215399778915</v>
       </c>
       <c r="E2">
-        <v>7.080804042995403</v>
+        <v>7.035340746490341</v>
       </c>
       <c r="F2">
-        <v>31.38930672611949</v>
+        <v>29.6027639023557</v>
       </c>
       <c r="G2">
-        <v>42.20854964914904</v>
+        <v>38.84033379301616</v>
       </c>
       <c r="H2">
-        <v>2.69606503117575</v>
+        <v>2.564090068132592</v>
       </c>
       <c r="I2">
-        <v>3.417055189895061</v>
+        <v>3.248596975489846</v>
       </c>
       <c r="J2">
-        <v>13.21863413697472</v>
+        <v>12.79383391929272</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.963983717846828</v>
+        <v>15.55958853399303</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.14759140166104</v>
       </c>
       <c r="N2">
-        <v>7.59823567766461</v>
+        <v>5.874507952580453</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>13.10964658790971</v>
+        <v>7.892269467781674</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.90744903897335</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.56621640173908</v>
+        <v>21.70446259549469</v>
       </c>
       <c r="C3">
-        <v>11.94951913008987</v>
+        <v>12.46609851405534</v>
       </c>
       <c r="D3">
-        <v>3.630106995350618</v>
+        <v>3.829648735599871</v>
       </c>
       <c r="E3">
-        <v>6.945596020034222</v>
+        <v>6.920586345992584</v>
       </c>
       <c r="F3">
-        <v>30.49062229093313</v>
+        <v>28.85476966118746</v>
       </c>
       <c r="G3">
-        <v>40.6835202911633</v>
+        <v>37.61817327082241</v>
       </c>
       <c r="H3">
-        <v>2.972179773945728</v>
+        <v>2.813108825770944</v>
       </c>
       <c r="I3">
-        <v>3.643209038353987</v>
+        <v>3.443596510926775</v>
       </c>
       <c r="J3">
-        <v>13.00661317246134</v>
+        <v>12.58919678586783</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.897382441301012</v>
+        <v>15.54693400156307</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.92284707916068</v>
       </c>
       <c r="N3">
-        <v>7.328165555397013</v>
+        <v>5.817602269224316</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>13.26725230309778</v>
+        <v>7.61267160088908</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.0454294880652</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.61010631618212</v>
+        <v>20.79544440845869</v>
       </c>
       <c r="C4">
-        <v>11.44485355265661</v>
+        <v>11.89676511022481</v>
       </c>
       <c r="D4">
-        <v>3.586790722738784</v>
+        <v>3.784609639638921</v>
       </c>
       <c r="E4">
-        <v>6.860213774969546</v>
+        <v>6.848104877328224</v>
       </c>
       <c r="F4">
-        <v>29.9336227873582</v>
+        <v>28.39068837493329</v>
       </c>
       <c r="G4">
-        <v>39.73015788684113</v>
+        <v>36.85855762099051</v>
       </c>
       <c r="H4">
-        <v>3.147492802320964</v>
+        <v>2.971397672402749</v>
       </c>
       <c r="I4">
-        <v>3.787388339934018</v>
+        <v>3.568345232590605</v>
       </c>
       <c r="J4">
-        <v>12.87808176969843</v>
+        <v>12.46200780672279</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.854972638675748</v>
+        <v>15.53477528638561</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.80308552560506</v>
       </c>
       <c r="N4">
-        <v>7.158177602964014</v>
+        <v>5.781277310194415</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>13.36514043390533</v>
+        <v>7.436975749481545</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.13191681483623</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.20036575058976</v>
+        <v>20.40523839071804</v>
       </c>
       <c r="C5">
-        <v>11.24022421877701</v>
+        <v>11.66473401029194</v>
       </c>
       <c r="D5">
-        <v>3.570058402888783</v>
+        <v>3.76727636041518</v>
       </c>
       <c r="E5">
-        <v>6.824213251592222</v>
+        <v>6.817511585635774</v>
       </c>
       <c r="F5">
-        <v>29.69310949641577</v>
+        <v>28.18872359812067</v>
       </c>
       <c r="G5">
-        <v>39.31571263311708</v>
+        <v>36.52602137339083</v>
       </c>
       <c r="H5">
-        <v>3.220910117335685</v>
+        <v>3.037730362436785</v>
       </c>
       <c r="I5">
-        <v>3.850189079057706</v>
+        <v>3.623555115937857</v>
       </c>
       <c r="J5">
-        <v>12.82187184929307</v>
+        <v>12.40571627126485</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.836745608744124</v>
+        <v>15.52130914002007</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.75339963985758</v>
       </c>
       <c r="N5">
-        <v>7.089333343034022</v>
+        <v>5.765644045219763</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>13.40476701633085</v>
+        <v>7.365792050074591</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.16745447185245</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.12231659171009</v>
+        <v>20.33077934472963</v>
       </c>
       <c r="C6">
-        <v>11.21428820042122</v>
+        <v>11.63424013272239</v>
       </c>
       <c r="D6">
-        <v>3.568440356962914</v>
+        <v>3.765599420969902</v>
       </c>
       <c r="E6">
-        <v>6.817460072983829</v>
+        <v>6.811738784355313</v>
       </c>
       <c r="F6">
-        <v>29.63785680689086</v>
+        <v>28.14067780709773</v>
       </c>
       <c r="G6">
-        <v>39.21958856598403</v>
+        <v>36.4450154599023</v>
       </c>
       <c r="H6">
-        <v>3.233794809370368</v>
+        <v>3.049378022955697</v>
       </c>
       <c r="I6">
-        <v>3.864133986780221</v>
+        <v>3.636776290137077</v>
       </c>
       <c r="J6">
-        <v>12.80733764203774</v>
+        <v>12.39132674194803</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.83301563481642</v>
+        <v>15.50997675703189</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.73859572503794</v>
       </c>
       <c r="N6">
-        <v>7.079565736186423</v>
+        <v>5.762445337471455</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>13.410688881974</v>
+        <v>7.355564878734275</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.17320185674344</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.57988919078439</v>
+        <v>20.75557088305014</v>
       </c>
       <c r="C7">
-        <v>11.46453903430777</v>
+        <v>11.90371398964752</v>
       </c>
       <c r="D7">
-        <v>3.58971061805913</v>
+        <v>3.791222136215276</v>
       </c>
       <c r="E7">
-        <v>6.857735293359844</v>
+        <v>6.846740169244221</v>
       </c>
       <c r="F7">
-        <v>29.88910592815059</v>
+        <v>28.32511383381086</v>
       </c>
       <c r="G7">
-        <v>39.6514837039862</v>
+        <v>36.85727337959817</v>
       </c>
       <c r="H7">
-        <v>3.150103541832842</v>
+        <v>2.974645101197719</v>
       </c>
       <c r="I7">
-        <v>3.79736242406918</v>
+        <v>3.580455551384202</v>
       </c>
       <c r="J7">
-        <v>12.86312298057031</v>
+        <v>12.39306506633891</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.85289184233214</v>
+        <v>15.49943526283571</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.77482733638648</v>
       </c>
       <c r="N7">
-        <v>7.161897797585856</v>
+        <v>5.779099636789022</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>13.36390091899565</v>
+        <v>7.439491115006082</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.13187949095527</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51274635987087</v>
+        <v>22.56887220397911</v>
       </c>
       <c r="C8">
-        <v>12.49560342956348</v>
+        <v>13.0391103932291</v>
       </c>
       <c r="D8">
-        <v>3.680267963595042</v>
+        <v>3.8938467164001</v>
       </c>
       <c r="E8">
-        <v>7.032126098348981</v>
+        <v>6.996725928891959</v>
       </c>
       <c r="F8">
-        <v>31.02792967636455</v>
+        <v>29.21979056678196</v>
       </c>
       <c r="G8">
-        <v>41.59392632454973</v>
+        <v>38.56579141405082</v>
       </c>
       <c r="H8">
-        <v>2.792147311050818</v>
+        <v>2.653450376361461</v>
       </c>
       <c r="I8">
-        <v>3.505733884881201</v>
+        <v>3.330970770490512</v>
       </c>
       <c r="J8">
-        <v>13.12680471158124</v>
+        <v>12.52922622006324</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.938986790947333</v>
+        <v>15.49203952941432</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.01038222403378</v>
       </c>
       <c r="N8">
-        <v>7.511917674198955</v>
+        <v>5.85195033560189</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>13.16176079482282</v>
+        <v>7.799299489617612</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.95479037260004</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.93855766141419</v>
+        <v>25.80327310357608</v>
       </c>
       <c r="C9">
-        <v>14.29712741299523</v>
+        <v>15.0567502186287</v>
       </c>
       <c r="D9">
-        <v>3.851313860047208</v>
+        <v>4.076727110954766</v>
       </c>
       <c r="E9">
-        <v>7.359147280476715</v>
+        <v>7.27507500572359</v>
       </c>
       <c r="F9">
-        <v>33.28018759643571</v>
+        <v>31.08326398800238</v>
       </c>
       <c r="G9">
-        <v>45.37308047695549</v>
+        <v>41.6779886915692</v>
       </c>
       <c r="H9">
-        <v>2.131948681154496</v>
+        <v>2.059619022960167</v>
       </c>
       <c r="I9">
-        <v>2.960029476566798</v>
+        <v>2.860519062874473</v>
       </c>
       <c r="J9">
-        <v>13.68053577440615</v>
+        <v>13.00506371625845</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.09923946585254</v>
+        <v>15.52297932945025</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.67860336670488</v>
       </c>
       <c r="N9">
-        <v>8.154787778294384</v>
+        <v>5.988199976297868</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.77603598345317</v>
+        <v>8.465922333531433</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.62162037796548</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.11410974188843</v>
+        <v>27.80509618183857</v>
       </c>
       <c r="C10">
-        <v>15.5299235448977</v>
+        <v>16.36328493167824</v>
       </c>
       <c r="D10">
-        <v>3.964148177177303</v>
+        <v>4.215415329589038</v>
       </c>
       <c r="E10">
-        <v>7.541747148248322</v>
+        <v>7.431451642110763</v>
       </c>
       <c r="F10">
-        <v>34.66927272599432</v>
+        <v>32.09693890908745</v>
       </c>
       <c r="G10">
-        <v>47.70185230741279</v>
+        <v>43.9652207816797</v>
       </c>
       <c r="H10">
-        <v>1.707207234250455</v>
+        <v>1.685207635319679</v>
       </c>
       <c r="I10">
-        <v>2.597990418451026</v>
+        <v>2.556283411447758</v>
       </c>
       <c r="J10">
-        <v>14.02351431707041</v>
+        <v>12.99633985936651</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.1905576052624</v>
+        <v>15.39106282151428</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.10180953500349</v>
       </c>
       <c r="N10">
-        <v>8.523252987499976</v>
+        <v>6.065345185478556</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.49371518963533</v>
+        <v>8.844023468046689</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.39348188684597</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.31764823445903</v>
+        <v>27.94345074153217</v>
       </c>
       <c r="C11">
-        <v>16.19537197557922</v>
+        <v>16.88813771421695</v>
       </c>
       <c r="D11">
-        <v>3.905767565572895</v>
+        <v>4.17076913418414</v>
       </c>
       <c r="E11">
-        <v>7.29407048414786</v>
+        <v>7.2003236728585</v>
       </c>
       <c r="F11">
-        <v>33.47164942966723</v>
+        <v>30.72613451353632</v>
       </c>
       <c r="G11">
-        <v>46.03343430102612</v>
+        <v>43.22298791694087</v>
       </c>
       <c r="H11">
-        <v>2.711201909895272</v>
+        <v>2.708418241099607</v>
       </c>
       <c r="I11">
-        <v>2.527462915560899</v>
+        <v>2.513302243541691</v>
       </c>
       <c r="J11">
-        <v>13.61324897928967</v>
+        <v>12.04050176926616</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.108454591780641</v>
+        <v>14.59312735732902</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.50465187712872</v>
       </c>
       <c r="N11">
-        <v>7.99958481528723</v>
+        <v>6.014046217273647</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.37160607835918</v>
+        <v>8.292543837225415</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.37556261086354</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.06728768544268</v>
+        <v>27.70342503701234</v>
       </c>
       <c r="C12">
-        <v>16.48057236579903</v>
+        <v>17.07183436931331</v>
       </c>
       <c r="D12">
-        <v>3.831623083526527</v>
+        <v>4.087056366970084</v>
       </c>
       <c r="E12">
-        <v>7.153396179264121</v>
+        <v>7.070534658225526</v>
       </c>
       <c r="F12">
-        <v>32.20243542544718</v>
+        <v>29.46457121536688</v>
       </c>
       <c r="G12">
-        <v>44.20031195624916</v>
+        <v>41.95254051514845</v>
       </c>
       <c r="H12">
-        <v>4.115213911820387</v>
+        <v>4.114397175582923</v>
       </c>
       <c r="I12">
-        <v>2.520321874662288</v>
+        <v>2.517402200737867</v>
       </c>
       <c r="J12">
-        <v>13.20755272393856</v>
+        <v>11.44325565809442</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.081630355808072</v>
+        <v>14.02185388052158</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.96454182203189</v>
       </c>
       <c r="N12">
-        <v>7.479499914892688</v>
+        <v>6.01571546354842</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.35936122536437</v>
+        <v>7.749379924512352</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.43353559014424</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.41535239531257</v>
+        <v>27.14372345679617</v>
       </c>
       <c r="C13">
-        <v>16.52570558860721</v>
+        <v>17.06081736104938</v>
       </c>
       <c r="D13">
-        <v>3.74446536287082</v>
+        <v>3.967063344944213</v>
       </c>
       <c r="E13">
-        <v>7.08576805812985</v>
+        <v>7.015631876893427</v>
       </c>
       <c r="F13">
-        <v>30.72126637414173</v>
+        <v>28.18581249818296</v>
       </c>
       <c r="G13">
-        <v>41.9876408518119</v>
+        <v>39.90766270972838</v>
       </c>
       <c r="H13">
-        <v>5.559262142029918</v>
+        <v>5.555337155670735</v>
       </c>
       <c r="I13">
-        <v>2.578278365356389</v>
+        <v>2.551386345179596</v>
       </c>
       <c r="J13">
-        <v>12.75590020019064</v>
+        <v>11.15468305417745</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.091667420454156</v>
+        <v>13.56485241413554</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.42542413320536</v>
       </c>
       <c r="N13">
-        <v>6.931270144702338</v>
+        <v>6.053651183085063</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.42457511280555</v>
+        <v>7.181539691480393</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.53742327268008</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.76218309992754</v>
+        <v>26.59265457680746</v>
       </c>
       <c r="C14">
-        <v>16.45508883377389</v>
+        <v>16.96962667477419</v>
       </c>
       <c r="D14">
-        <v>3.678715271724394</v>
+        <v>3.870539934760436</v>
       </c>
       <c r="E14">
-        <v>7.08632760870506</v>
+        <v>7.029078832045797</v>
       </c>
       <c r="F14">
-        <v>29.56943462789187</v>
+        <v>27.26185023399207</v>
       </c>
       <c r="G14">
-        <v>40.22879873880825</v>
+        <v>38.09846814634589</v>
       </c>
       <c r="H14">
-        <v>6.58109317422583</v>
+        <v>6.5740136054231</v>
       </c>
       <c r="I14">
-        <v>2.651442450840921</v>
+        <v>2.610901642538954</v>
       </c>
       <c r="J14">
-        <v>12.41466560535256</v>
+        <v>11.07279103577449</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.12211770620732</v>
+        <v>13.28575717399752</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.0443059529135</v>
       </c>
       <c r="N14">
-        <v>6.537244200155968</v>
+        <v>6.102328078749427</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.50703635101426</v>
+        <v>6.774907763699449</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.62928008216407</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.50763419066632</v>
+        <v>26.37942509948781</v>
       </c>
       <c r="C15">
-        <v>16.39322041118587</v>
+        <v>16.91069273283096</v>
       </c>
       <c r="D15">
-        <v>3.66023555337643</v>
+        <v>3.841676454789476</v>
       </c>
       <c r="E15">
-        <v>7.087342066579339</v>
+        <v>7.035501947740046</v>
       </c>
       <c r="F15">
-        <v>29.23162712812082</v>
+        <v>27.01679109792087</v>
       </c>
       <c r="G15">
-        <v>39.69574444766301</v>
+        <v>37.4834751492239</v>
       </c>
       <c r="H15">
-        <v>6.820333848076926</v>
+        <v>6.811749377019634</v>
       </c>
       <c r="I15">
-        <v>2.688538457714912</v>
+        <v>2.642444496930849</v>
       </c>
       <c r="J15">
-        <v>12.31799997047675</v>
+        <v>11.10078915135294</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.129327822851343</v>
+        <v>13.23005088188817</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.94483537762827</v>
       </c>
       <c r="N15">
-        <v>6.435736904787556</v>
+        <v>6.113953063714657</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.54002510326439</v>
+        <v>6.670938951865287</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.6580629609967</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.68454638570426</v>
+        <v>25.69224057076023</v>
       </c>
       <c r="C16">
-        <v>15.89640115650825</v>
+        <v>16.47762684316531</v>
       </c>
       <c r="D16">
-        <v>3.629280846354208</v>
+        <v>3.785578275250142</v>
       </c>
       <c r="E16">
-        <v>7.01586714633198</v>
+        <v>6.981803480136482</v>
       </c>
       <c r="F16">
-        <v>28.86047903848359</v>
+        <v>26.95155286629066</v>
       </c>
       <c r="G16">
-        <v>39.00053806181023</v>
+        <v>36.2202890310826</v>
       </c>
       <c r="H16">
-        <v>6.638027157146609</v>
+        <v>6.620659195983677</v>
       </c>
       <c r="I16">
-        <v>2.836554671165543</v>
+        <v>2.763517891148241</v>
       </c>
       <c r="J16">
-        <v>12.24488192041365</v>
+        <v>11.54015027697194</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.083863092777907</v>
+        <v>13.39966347584545</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.94233522242128</v>
       </c>
       <c r="N16">
-        <v>6.374267631125839</v>
+        <v>6.069623181989967</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.63499588715577</v>
+        <v>6.615736523670833</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.69792089650583</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.40510103803753</v>
+        <v>25.44841936775636</v>
       </c>
       <c r="C17">
-        <v>15.54684144144916</v>
+        <v>16.1738779972792</v>
       </c>
       <c r="D17">
-        <v>3.640741669376752</v>
+        <v>3.795634042361077</v>
       </c>
       <c r="E17">
-        <v>6.950567002711487</v>
+        <v>6.918544401112026</v>
       </c>
       <c r="F17">
-        <v>29.20250595903375</v>
+        <v>27.37591895920893</v>
       </c>
       <c r="G17">
-        <v>39.43164196880474</v>
+        <v>36.33747340032833</v>
       </c>
       <c r="H17">
-        <v>5.929701246843198</v>
+        <v>5.905231453627941</v>
       </c>
       <c r="I17">
-        <v>2.912248823380434</v>
+        <v>2.826771742363345</v>
       </c>
       <c r="J17">
-        <v>12.37253799075756</v>
+        <v>11.86622457800409</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.027834584446176</v>
+        <v>13.6762132967736</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.12911034030379</v>
       </c>
       <c r="N17">
-        <v>6.538628308434637</v>
+        <v>6.005163898778237</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.66472267360624</v>
+        <v>6.790805689945908</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.68835272075175</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.58928996843661</v>
+        <v>25.60286649842273</v>
       </c>
       <c r="C18">
-        <v>15.27519276280638</v>
+        <v>15.9582350951629</v>
       </c>
       <c r="D18">
-        <v>3.690474727232841</v>
+        <v>3.85729242578389</v>
       </c>
       <c r="E18">
-        <v>6.939953611455856</v>
+        <v>6.896258606399552</v>
       </c>
       <c r="F18">
-        <v>30.2231886096921</v>
+        <v>28.33986005354586</v>
       </c>
       <c r="G18">
-        <v>40.92811447674976</v>
+        <v>37.55739580479948</v>
       </c>
       <c r="H18">
-        <v>4.717189836828323</v>
+        <v>4.685263550347013</v>
       </c>
       <c r="I18">
-        <v>2.92097093940683</v>
+        <v>2.831441644623772</v>
       </c>
       <c r="J18">
-        <v>12.69632235020872</v>
+        <v>12.23773464622352</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.985559436497018</v>
+        <v>14.11755903736028</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.53020819403701</v>
       </c>
       <c r="N18">
-        <v>6.924034703780285</v>
+        <v>5.944048772805062</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.6537620753324</v>
+        <v>7.19317456130115</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.6382718104312</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.08966204028527</v>
+        <v>26.03352460878811</v>
       </c>
       <c r="C19">
-        <v>15.12567202926859</v>
+        <v>15.87596512314364</v>
       </c>
       <c r="D19">
-        <v>3.774818709615464</v>
+        <v>3.962077055930249</v>
       </c>
       <c r="E19">
-        <v>7.054979690779716</v>
+        <v>6.989786943335795</v>
       </c>
       <c r="F19">
-        <v>31.6376950873892</v>
+        <v>29.61344063079718</v>
       </c>
       <c r="G19">
-        <v>43.03089592171509</v>
+        <v>39.38254627898768</v>
       </c>
       <c r="H19">
-        <v>3.296178528107438</v>
+        <v>3.255211899663098</v>
       </c>
       <c r="I19">
-        <v>2.892710529948836</v>
+        <v>2.809764688151965</v>
       </c>
       <c r="J19">
-        <v>13.12940064706246</v>
+        <v>12.6369138622631</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.000073693368904</v>
+        <v>14.6386642650078</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.04870056243173</v>
       </c>
       <c r="N19">
-        <v>7.476413096067096</v>
+        <v>5.931126638478245</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.63238875179415</v>
+        <v>7.766205741791768</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.576251449978</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.49452408332828</v>
+        <v>27.26404460709087</v>
       </c>
       <c r="C20">
-        <v>15.2690830981562</v>
+        <v>16.11802412652507</v>
       </c>
       <c r="D20">
-        <v>3.942783536469605</v>
+        <v>4.175489197876344</v>
       </c>
       <c r="E20">
-        <v>7.486755076118225</v>
+        <v>7.381065223469922</v>
       </c>
       <c r="F20">
-        <v>34.1850542599337</v>
+        <v>31.7927133460341</v>
       </c>
       <c r="G20">
-        <v>46.88922844417963</v>
+        <v>42.94576674352159</v>
       </c>
       <c r="H20">
-        <v>1.820661209191372</v>
+        <v>1.782458488851936</v>
       </c>
       <c r="I20">
-        <v>2.725332063067584</v>
+        <v>2.671436942263391</v>
       </c>
       <c r="J20">
-        <v>13.88944678472099</v>
+        <v>13.13719616147973</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.161092153851538</v>
+        <v>15.39374879639239</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.95284958516779</v>
       </c>
       <c r="N20">
-        <v>8.436702111168476</v>
+        <v>6.041786862787833</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.56468744106697</v>
+        <v>8.757383994249981</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.45390655928762</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.22869252743151</v>
+        <v>28.69565867658723</v>
       </c>
       <c r="C21">
-        <v>16.14705902391424</v>
+        <v>16.8858349959813</v>
       </c>
       <c r="D21">
-        <v>4.047963923383911</v>
+        <v>4.371693237098113</v>
       </c>
       <c r="E21">
-        <v>7.696922167996327</v>
+        <v>7.584260706750509</v>
       </c>
       <c r="F21">
-        <v>35.57944262323599</v>
+        <v>32.4782912993772</v>
       </c>
       <c r="G21">
-        <v>49.15508611692866</v>
+        <v>46.31032341109169</v>
       </c>
       <c r="H21">
-        <v>1.668410088682315</v>
+        <v>1.654120520949035</v>
       </c>
       <c r="I21">
-        <v>2.578337710325607</v>
+        <v>2.595959683280542</v>
       </c>
       <c r="J21">
-        <v>14.26161922420479</v>
+        <v>12.30780991984437</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.259785720456421</v>
+        <v>15.25558357845916</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.25333617632423</v>
       </c>
       <c r="N21">
-        <v>8.833940099995582</v>
+        <v>6.116953271933014</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.35354186098656</v>
+        <v>9.150643285014887</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.28536622834614</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.29724774039899</v>
+        <v>29.56633703738501</v>
       </c>
       <c r="C22">
-        <v>16.68673223135267</v>
+        <v>17.34080473980026</v>
       </c>
       <c r="D22">
-        <v>4.106093175326818</v>
+        <v>4.493928645874932</v>
       </c>
       <c r="E22">
-        <v>7.811063123076885</v>
+        <v>7.698425413453407</v>
       </c>
       <c r="F22">
-        <v>36.41940503884044</v>
+        <v>32.84324176209605</v>
       </c>
       <c r="G22">
-        <v>50.53037057064154</v>
+        <v>48.49583868224217</v>
       </c>
       <c r="H22">
-        <v>1.887026589363274</v>
+        <v>1.839578753541079</v>
       </c>
       <c r="I22">
-        <v>2.75060567381752</v>
+        <v>2.732164437093365</v>
       </c>
       <c r="J22">
-        <v>14.4894816586825</v>
+        <v>11.71136584347618</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.315599165954569</v>
+        <v>15.1395255158124</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.43066212712978</v>
       </c>
       <c r="N22">
-        <v>9.041797347645996</v>
+        <v>6.159518501401724</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.2156426548753</v>
+        <v>9.353695521516855</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.18154841989778</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.75275982076275</v>
+        <v>29.14721318909285</v>
       </c>
       <c r="C23">
-        <v>16.38105541273607</v>
+        <v>17.10412972414549</v>
       </c>
       <c r="D23">
-        <v>4.071807643146962</v>
+        <v>4.415479587932658</v>
       </c>
       <c r="E23">
-        <v>7.752314811947267</v>
+        <v>7.636634187482551</v>
       </c>
       <c r="F23">
-        <v>36.01317017756973</v>
+        <v>32.74143071033518</v>
       </c>
       <c r="G23">
-        <v>49.86883780953997</v>
+        <v>47.23503552079681</v>
       </c>
       <c r="H23">
-        <v>1.772269997171014</v>
+        <v>1.743837397273626</v>
       </c>
       <c r="I23">
-        <v>2.654217896787085</v>
+        <v>2.654656964130327</v>
       </c>
       <c r="J23">
-        <v>14.38283773927268</v>
+        <v>12.16307539871342</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.287778308523477</v>
+        <v>15.24558377225203</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.38423013695759</v>
       </c>
       <c r="N23">
-        <v>8.926799764349058</v>
+        <v>6.139076743687927</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.29012225702125</v>
+        <v>9.243569390654084</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.23300239643141</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.56662682006362</v>
+        <v>27.32940045898522</v>
       </c>
       <c r="C24">
-        <v>15.21310535561054</v>
+        <v>16.06936800980916</v>
       </c>
       <c r="D24">
-        <v>3.946702499904557</v>
+        <v>4.180854429215748</v>
       </c>
       <c r="E24">
-        <v>7.523409330645649</v>
+        <v>7.415163441646472</v>
       </c>
       <c r="F24">
-        <v>34.39084526152751</v>
+        <v>31.98464952741049</v>
       </c>
       <c r="G24">
-        <v>47.20683078917298</v>
+        <v>43.22253224495788</v>
       </c>
       <c r="H24">
-        <v>1.799303768387475</v>
+        <v>1.761537815659889</v>
       </c>
       <c r="I24">
-        <v>2.702842993704856</v>
+        <v>2.645910207495954</v>
       </c>
       <c r="J24">
-        <v>13.95733908880868</v>
+        <v>13.20710173667117</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.177457767406073</v>
+        <v>15.48905949196262</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.04496214943171</v>
       </c>
       <c r="N24">
-        <v>8.487849039012097</v>
+        <v>6.054342528898351</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.57154604522065</v>
+        <v>8.810876115254635</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.45119365828262</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.01766041193538</v>
+        <v>24.94817941079851</v>
       </c>
       <c r="C25">
-        <v>13.86359399265322</v>
+        <v>14.58337704976678</v>
       </c>
       <c r="D25">
-        <v>3.810501909681524</v>
+        <v>4.027904566425359</v>
       </c>
       <c r="E25">
-        <v>7.269266948873431</v>
+        <v>7.197238489237311</v>
       </c>
       <c r="F25">
-        <v>32.60927828154151</v>
+        <v>30.55149354171311</v>
       </c>
       <c r="G25">
-        <v>44.25067272105381</v>
+        <v>40.63939202740278</v>
       </c>
       <c r="H25">
-        <v>2.308649191270092</v>
+        <v>2.217249208015065</v>
       </c>
       <c r="I25">
-        <v>3.120730235967077</v>
+        <v>3.002816893118132</v>
       </c>
       <c r="J25">
-        <v>13.50526759773524</v>
+        <v>12.92868780092158</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.05403526448557</v>
+        <v>15.494111886366</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.46024364038311</v>
       </c>
       <c r="N25">
-        <v>7.992639793840015</v>
+        <v>5.950403250166386</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.87748601571123</v>
+        <v>8.298312156480742</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.71084598529836</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
